--- a/variant_12/Задание 18/18.xlsx
+++ b/variant_12/Задание 18/18.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\YandexDisk\BeeGeek\ИНформатика\2020-2021\Варианты\6 вариант\Файлы\Задание 18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F690D57-5EFD-4ED9-BB6F-C4E1FBF0553C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,8 +19,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,13 +29,27 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -56,8 +64,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -118,7 +127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -153,7 +162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -330,23 +339,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="A1:J10"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>51</v>
       </c>
@@ -378,7 +390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>57</v>
       </c>
@@ -410,7 +422,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>52</v>
       </c>
@@ -442,7 +454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -474,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>99</v>
       </c>
@@ -506,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>35</v>
       </c>
@@ -538,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -570,7 +582,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -602,7 +614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -634,7 +646,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -664,6 +676,826 @@
       </c>
       <c r="J10">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A1 + A13</f>
+        <v>379</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:I12" si="0">B1 + MAX(A12,B13)</f>
+        <v>391</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>536</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>841</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>941</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>1074</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>1113</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1131</v>
+      </c>
+      <c r="J12" s="1">
+        <f>J1 + MAX(I12,J13)</f>
+        <v>1132</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:T12" si="1">A1 + MIN(K12,L13)</f>
+        <v>379</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="U12" s="1">
+        <f>J1 + MIN(T12,U13)</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A21" si="2">A2 + A14</f>
+        <v>328</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:B21" si="3">B2 + MAX(A13,B14)</f>
+        <v>371</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C21" si="4">C2 + MAX(B13,C14)</f>
+        <v>521</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D21" si="5">D2 + MAX(C13,D14)</f>
+        <v>572</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E21" si="6">E2 + MAX(D13,E14)</f>
+        <v>796</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F21" si="7">F2 + MAX(E13,F14)</f>
+        <v>806</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G21" si="8">G2 + MAX(F13,G14)</f>
+        <v>975</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H21" si="9">H2 + MAX(G13,H14)</f>
+        <v>1007</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:J21" si="10">I2 + MAX(H13,I14)</f>
+        <v>1026</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="10"/>
+        <v>1084</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L21" si="11">A2 + MIN(K13,L14)</f>
+        <v>328</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M21" si="12">B2 + MIN(L13,M14)</f>
+        <v>191</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ref="N13:N21" si="13">C2 + MIN(M13,N14)</f>
+        <v>276</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O21" si="14">D2 + MIN(N13,O14)</f>
+        <v>233</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P21" si="15">E2 + MIN(O13,P14)</f>
+        <v>325</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q21" si="16">F2 + MIN(P13,Q14)</f>
+        <v>335</v>
+      </c>
+      <c r="R13">
+        <f t="shared" ref="R13:R21" si="17">G2 + MIN(Q13,R14)</f>
+        <v>428</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S21" si="18">H2 + MIN(R13,S14)</f>
+        <v>391</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13:U21" si="19">I2 + MIN(S13,T14)</f>
+        <v>342</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="19"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="3"/>
+        <v>287</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>424</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="5"/>
+        <v>454</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="6"/>
+        <v>704</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="7"/>
+        <v>792</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="8"/>
+        <v>882</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="9"/>
+        <v>954</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="10"/>
+        <v>991</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J21" si="20">J3 + MAX(I14,J15)</f>
+        <v>1002</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="11"/>
+        <v>271</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="12"/>
+        <v>148</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="13"/>
+        <v>179</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="14"/>
+        <v>182</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="15"/>
+        <v>260</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="16"/>
+        <v>348</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="17"/>
+        <v>422</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="18"/>
+        <v>359</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="19"/>
+        <v>323</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14:U21" si="21">J3 + MIN(T14,U15)</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="3"/>
+        <v>224</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>393</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>438</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="6"/>
+        <v>626</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="7"/>
+        <v>676</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>757</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="9"/>
+        <v>759</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="10"/>
+        <v>850</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="20"/>
+        <v>852</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="11"/>
+        <v>219</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="12"/>
+        <v>132</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="13"/>
+        <v>196</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="14"/>
+        <v>166</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="15"/>
+        <v>262</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="16"/>
+        <v>307</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="17"/>
+        <v>332</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="18"/>
+        <v>287</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="19"/>
+        <v>286</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="21"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>329</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>413</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>530</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="7"/>
+        <v>606</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>644</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="9"/>
+        <v>745</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="10"/>
+        <v>750</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="20"/>
+        <v>752</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="11"/>
+        <v>209</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="12"/>
+        <v>131</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="13"/>
+        <v>134</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="14"/>
+        <v>141</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="15"/>
+        <v>181</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="16"/>
+        <v>257</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="17"/>
+        <v>251</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="18"/>
+        <v>285</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="19"/>
+        <v>195</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="21"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="3"/>
+        <v>221</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>326</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>406</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="6"/>
+        <v>490</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>498</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>611</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="9"/>
+        <v>711</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="10"/>
+        <v>721</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="20"/>
+        <v>723</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="11"/>
+        <v>110</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="12"/>
+        <v>129</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="13"/>
+        <v>171</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="14"/>
+        <v>237</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="15"/>
+        <v>265</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="16"/>
+        <v>196</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="17"/>
+        <v>218</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="18"/>
+        <v>273</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="19"/>
+        <v>190</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="21"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>391</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="7"/>
+        <v>442</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>589</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="9"/>
+        <v>590</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="10"/>
+        <v>597</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="20"/>
+        <v>682</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="12"/>
+        <v>132</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="13"/>
+        <v>159</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="15"/>
+        <v>181</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="16"/>
+        <v>188</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="17"/>
+        <v>288</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="18"/>
+        <v>173</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="19"/>
+        <v>180</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="21"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>257</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>303</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="6"/>
+        <v>340</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="7"/>
+        <v>409</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>489</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="9"/>
+        <v>520</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="10"/>
+        <v>523</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="20"/>
+        <v>562</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="13"/>
+        <v>134</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="14"/>
+        <v>134</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="15"/>
+        <v>130</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="16"/>
+        <v>155</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="17"/>
+        <v>205</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="18"/>
+        <v>172</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="19"/>
+        <v>175</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="21"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>219</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="6"/>
+        <v>230</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="7"/>
+        <v>233</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="9"/>
+        <v>288</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="10"/>
+        <v>352</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="20"/>
+        <v>402</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="12"/>
+        <v>113</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="13"/>
+        <v>148</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="14"/>
+        <v>88</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="15"/>
+        <v>93</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="16"/>
+        <v>86</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="17"/>
+        <v>125</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="18"/>
+        <v>141</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="19"/>
+        <v>205</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="21"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>127</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="10"/>
+        <v>180</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="20"/>
+        <v>213</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="13"/>
+        <v>73</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="15"/>
+        <v>82</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="17"/>
+        <v>127</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="18"/>
+        <v>140</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="19"/>
+        <v>180</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="21"/>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
